--- a/ap_cmn.xlsx
+++ b/ap_cmn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -79,21 +79,90 @@
     <x:t>User should be able to input value for the Campaign Name field.</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Valid value for required field Status, value should be equals Aborted to submit for Approval towards to the assigned approver </x:t>
+  </x:si>
+  <x:si>
     <x:t>Step 3</x:t>
   </x:si>
   <x:si>
+    <x:t>Input valid value in the  Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 4</x:t>
+  </x:si>
+  <x:si>
     <x:t>Click on Save button to save Campaign with fields</x:t>
   </x:si>
   <x:si>
     <x:t>User should be able to validate that a New Campaign is created</x:t>
   </x:si>
   <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>On the Campaign page, Click on 'Submit for Approval' button to Submit for Approval.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pop-up confirming to submit the record for Approval is displayed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on 'OK' button to submit the record for Approval.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The record will be displayed under Approval History section with the status 'Pending'.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>If the user is navigated to the 'Choose Approver' page, he should be able to input the Next Approver.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is able to input the Next Approver.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on 'Send to Next Approver' button.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The record will be displayed under Approval History section with the status 'Pending' and the updated Approver Name.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>For this Approval process, if e-mail notification is configured, validate that the Approver receives an e-mail with Approve/Reject request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the e-mail to either Approve/Reject the request.</x:t>
+  </x:si>
+  <x:si>
     <x:t>TestScenario_2</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
+    <x:t>Click on 'Cancel' button to prevent submission for approval.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is redirected to the Campaign Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3.TestCase_1</x:t>
+  </x:si>
+  <x:si>
     <x:t>View Campaign</x:t>
   </x:si>
   <x:si>
@@ -109,10 +178,10 @@
     <x:t>User should be able to view the Campaign Details</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
+    <x:t>TestScenario_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>Edit Campaign</x:t>
@@ -127,10 +196,16 @@
     <x:t>User should be able to validate that the Campaign is edited</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
+    <x:t>TestScenario_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_5.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_6.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>Delete Campaign</x:t>
@@ -149,198 +224,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate the Campaign is deleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Status, value should be equals Aborted to submit for Approval towards to the assigned approver </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On the Campaign page, Click on 'Submit for Approval' button to Submit for Approval.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pop-up confirming to submit the record for Approval is displayed.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on 'OK' button to submit the record for Approval.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The record will be displayed under Approval History section with the status 'Pending'.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>If the user is navigated to the 'Choose Approver' page, he should be able to input the Next Approver.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is able to input the Next Approver.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on 'Send to Next Approver' button.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The record will be displayed under Approval History section with the status 'Pending' and the updated Approver Name.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>For this Approval process, if e-mail notification is configured, validate that the Approver receives an e-mail with Approve/Reject request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the e-mail to either Approve/Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on 'Cancel' button to prevent submission for approval.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is redirected to the Campaign Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reassign Approve/Reject Campaign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Campaign tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From the list of the  Campaigns displayed, select the appropriate Campaign.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Campaign details page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scroll down the Campaign page to locate the 'Approval History' section.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the pending Approve/Reject requests listed.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>To Reassign the record's request, Click on the 'Reassign' link.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the 'Reassign Approval Request' Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In the 'Reassign Approval Request' section input the appropriate Approver in the 'Approver' field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input the appropriate Approver.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In the 'Reassign Approval Request' section, input Comments if required.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input appropriate comments.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on 'Reassign Approval Request' button.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the changes are saved and they are navigated to the Campaign details Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the name in the 'Assigned To' field matches the name that was updated in 'Step 5'.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approve/Reject Campaign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>To Approve/Reject the record's request, Click on 'Approve/Reject' link.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Approval Request, Account:(Approver Name) Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In the 'Approve/Reject Approval Request' section, input comments if required.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the 'Approve' or the 'Reject' button to either Approve or Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to either 'Approve' or 'Reject' the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On performing either 'Approval' or 'Rejection' action, user is navigated to the Campaign request page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the request is either 'Approved' or 'Rejected'.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approve/Reject through e-mail link Campaign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The e-mail should contain a link to Approve/Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validate if the user has received an e-mail notification for Approve/Reject.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should have received an e-mail to Approve/Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>To access this page, you have to log in to Salesforce.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the link provided in the e-mail.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Approval Request Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Under the 'Approve/Reject Approval Request' section, input comments if necessary.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input the comments.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approve/Reject through e-mail Campaign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The approver should receive an e-mail to Approve/Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on 'Reply All' option to respond to the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to reply all through the e-mail chain.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>To Approve/Reject the request reply e-mail with one of these words: APPROVE, APPROVED, YES, REJECT, REJECTED, NO.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to reply the email message: APPROVE, APPROVED, YES,REJECT, REJECTED, NO.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Navigate to the  Campaign page on Salesforce.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -424,8 +307,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J109" totalsRowShown="0">
-  <x:autoFilter ref="A1:J109"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J71" totalsRowShown="0">
+  <x:autoFilter ref="A1:J71"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -730,7 +613,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J109"/>
+  <x:dimension ref="A1:J71"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -738,7 +621,7 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="43.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18.130625000000002" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="113.70062499999999" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
@@ -831,41 +714,35 @@
       <x:c r="B4" s="0" t="s"/>
       <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="A5" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>28</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
@@ -877,7 +754,7 @@
       <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
         <x:v>29</x:v>
@@ -889,27 +766,19 @@
       <x:c r="J6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10">
-      <x:c r="A7" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -919,17 +788,15 @@
       <x:c r="B8" s="0" t="s"/>
       <x:c r="C8" s="0" t="s"/>
       <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -941,57 +808,57 @@
       <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
     </x:row>
     <x:row r="11" spans="1:10">
-      <x:c r="A11" s="0" t="s"/>
-      <x:c r="B11" s="0" t="s"/>
-      <x:c r="C11" s="0" t="s"/>
-      <x:c r="D11" s="0" t="s"/>
+      <x:c r="A11" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -1001,41 +868,37 @@
       <x:c r="B12" s="0" t="s"/>
       <x:c r="C12" s="0" t="s"/>
       <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
     </x:row>
     <x:row r="13" spans="1:10">
-      <x:c r="A13" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s"/>
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -1045,17 +908,15 @@
       <x:c r="B14" s="0" t="s"/>
       <x:c r="C14" s="0" t="s"/>
       <x:c r="D14" s="0" t="s"/>
-      <x:c r="E14" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -1065,17 +926,15 @@
       <x:c r="B15" s="0" t="s"/>
       <x:c r="C15" s="0" t="s"/>
       <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -1087,25 +946,33 @@
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
     </x:row>
     <x:row r="17" spans="1:10">
-      <x:c r="A17" s="0" t="s"/>
-      <x:c r="B17" s="0" t="s"/>
-      <x:c r="C17" s="0" t="s"/>
-      <x:c r="D17" s="0" t="s"/>
+      <x:c r="A17" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
         <x:v>50</x:v>
@@ -1123,31 +990,39 @@
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="G18" s="0" t="s">
+      <x:c r="H18" s="0" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>54</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
     </x:row>
     <x:row r="19" spans="1:10">
-      <x:c r="A19" s="0" t="s"/>
-      <x:c r="B19" s="0" t="s"/>
-      <x:c r="C19" s="0" t="s"/>
-      <x:c r="D19" s="0" t="s"/>
+      <x:c r="A19" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1157,15 +1032,17 @@
       <x:c r="B20" s="0" t="s"/>
       <x:c r="C20" s="0" t="s"/>
       <x:c r="D20" s="0" t="s"/>
-      <x:c r="E20" s="0" t="s"/>
+      <x:c r="E20" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
@@ -1175,41 +1052,35 @@
       <x:c r="B21" s="0" t="s"/>
       <x:c r="C21" s="0" t="s"/>
       <x:c r="D21" s="0" t="s"/>
-      <x:c r="E21" s="0" t="s"/>
+      <x:c r="E21" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
     </x:row>
     <x:row r="22" spans="1:10">
-      <x:c r="A22" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A22" s="0" t="s"/>
+      <x:c r="B22" s="0" t="s"/>
+      <x:c r="C22" s="0" t="s"/>
+      <x:c r="D22" s="0" t="s"/>
       <x:c r="E22" s="0" t="s"/>
       <x:c r="F22" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
@@ -1219,17 +1090,15 @@
       <x:c r="B23" s="0" t="s"/>
       <x:c r="C23" s="0" t="s"/>
       <x:c r="D23" s="0" t="s"/>
-      <x:c r="E23" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="E23" s="0" t="s"/>
       <x:c r="F23" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s"/>
       <x:c r="J23" s="0" t="s"/>
@@ -1239,17 +1108,15 @@
       <x:c r="B24" s="0" t="s"/>
       <x:c r="C24" s="0" t="s"/>
       <x:c r="D24" s="0" t="s"/>
-      <x:c r="E24" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="E24" s="0" t="s"/>
       <x:c r="F24" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s"/>
       <x:c r="J24" s="0" t="s"/>
@@ -1261,13 +1128,13 @@
       <x:c r="D25" s="0" t="s"/>
       <x:c r="E25" s="0" t="s"/>
       <x:c r="F25" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s"/>
       <x:c r="J25" s="0" t="s"/>
@@ -1279,13 +1146,13 @@
       <x:c r="D26" s="0" t="s"/>
       <x:c r="E26" s="0" t="s"/>
       <x:c r="F26" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s"/>
       <x:c r="J26" s="0" t="s"/>
@@ -1297,26 +1164,26 @@
       <x:c r="D27" s="0" t="s"/>
       <x:c r="E27" s="0" t="s"/>
       <x:c r="F27" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s"/>
       <x:c r="J27" s="0" t="s"/>
     </x:row>
     <x:row r="28" spans="1:10">
       <x:c r="A28" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>13</x:v>
@@ -1326,10 +1193,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s"/>
       <x:c r="J28" s="0" t="s"/>
@@ -1339,41 +1206,37 @@
       <x:c r="B29" s="0" t="s"/>
       <x:c r="C29" s="0" t="s"/>
       <x:c r="D29" s="0" t="s"/>
-      <x:c r="E29" s="0" t="s"/>
+      <x:c r="E29" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F29" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s"/>
       <x:c r="J29" s="0" t="s"/>
     </x:row>
     <x:row r="30" spans="1:10">
-      <x:c r="A30" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E30" s="0" t="s"/>
+      <x:c r="A30" s="0" t="s"/>
+      <x:c r="B30" s="0" t="s"/>
+      <x:c r="C30" s="0" t="s"/>
+      <x:c r="D30" s="0" t="s"/>
+      <x:c r="E30" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s"/>
       <x:c r="J30" s="0" t="s"/>
@@ -1383,17 +1246,15 @@
       <x:c r="B31" s="0" t="s"/>
       <x:c r="C31" s="0" t="s"/>
       <x:c r="D31" s="0" t="s"/>
-      <x:c r="E31" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="E31" s="0" t="s"/>
       <x:c r="F31" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s"/>
       <x:c r="J31" s="0" t="s"/>
@@ -1403,17 +1264,15 @@
       <x:c r="B32" s="0" t="s"/>
       <x:c r="C32" s="0" t="s"/>
       <x:c r="D32" s="0" t="s"/>
-      <x:c r="E32" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="E32" s="0" t="s"/>
       <x:c r="F32" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s"/>
       <x:c r="J32" s="0" t="s"/>
@@ -1425,31 +1284,39 @@
       <x:c r="D33" s="0" t="s"/>
       <x:c r="E33" s="0" t="s"/>
       <x:c r="F33" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H33" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s"/>
       <x:c r="J33" s="0" t="s"/>
     </x:row>
     <x:row r="34" spans="1:10">
-      <x:c r="A34" s="0" t="s"/>
-      <x:c r="B34" s="0" t="s"/>
-      <x:c r="C34" s="0" t="s"/>
-      <x:c r="D34" s="0" t="s"/>
+      <x:c r="A34" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E34" s="0" t="s"/>
       <x:c r="F34" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H34" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s"/>
       <x:c r="J34" s="0" t="s"/>
@@ -1461,13 +1328,13 @@
       <x:c r="D35" s="0" t="s"/>
       <x:c r="E35" s="0" t="s"/>
       <x:c r="F35" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H35" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s"/>
       <x:c r="J35" s="0" t="s"/>
@@ -1479,31 +1346,39 @@
       <x:c r="D36" s="0" t="s"/>
       <x:c r="E36" s="0" t="s"/>
       <x:c r="F36" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H36" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s"/>
       <x:c r="J36" s="0" t="s"/>
     </x:row>
     <x:row r="37" spans="1:10">
-      <x:c r="A37" s="0" t="s"/>
-      <x:c r="B37" s="0" t="s"/>
-      <x:c r="C37" s="0" t="s"/>
-      <x:c r="D37" s="0" t="s"/>
+      <x:c r="A37" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E37" s="0" t="s"/>
       <x:c r="F37" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H37" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s"/>
       <x:c r="J37" s="0" t="s"/>
@@ -1513,41 +1388,37 @@
       <x:c r="B38" s="0" t="s"/>
       <x:c r="C38" s="0" t="s"/>
       <x:c r="D38" s="0" t="s"/>
-      <x:c r="E38" s="0" t="s"/>
+      <x:c r="E38" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H38" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s"/>
       <x:c r="J38" s="0" t="s"/>
     </x:row>
     <x:row r="39" spans="1:10">
-      <x:c r="A39" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B39" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C39" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D39" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E39" s="0" t="s"/>
+      <x:c r="A39" s="0" t="s"/>
+      <x:c r="B39" s="0" t="s"/>
+      <x:c r="C39" s="0" t="s"/>
+      <x:c r="D39" s="0" t="s"/>
+      <x:c r="E39" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H39" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s"/>
       <x:c r="J39" s="0" t="s"/>
@@ -1557,17 +1428,15 @@
       <x:c r="B40" s="0" t="s"/>
       <x:c r="C40" s="0" t="s"/>
       <x:c r="D40" s="0" t="s"/>
-      <x:c r="E40" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="E40" s="0" t="s"/>
       <x:c r="F40" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H40" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s"/>
       <x:c r="J40" s="0" t="s"/>
@@ -1577,17 +1446,15 @@
       <x:c r="B41" s="0" t="s"/>
       <x:c r="C41" s="0" t="s"/>
       <x:c r="D41" s="0" t="s"/>
-      <x:c r="E41" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="E41" s="0" t="s"/>
       <x:c r="F41" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H41" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s"/>
       <x:c r="J41" s="0" t="s"/>
@@ -1599,13 +1466,13 @@
       <x:c r="D42" s="0" t="s"/>
       <x:c r="E42" s="0" t="s"/>
       <x:c r="F42" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s"/>
       <x:c r="J42" s="0" t="s"/>
@@ -1617,13 +1484,13 @@
       <x:c r="D43" s="0" t="s"/>
       <x:c r="E43" s="0" t="s"/>
       <x:c r="F43" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H43" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s"/>
       <x:c r="J43" s="0" t="s"/>
@@ -1635,57 +1502,57 @@
       <x:c r="D44" s="0" t="s"/>
       <x:c r="E44" s="0" t="s"/>
       <x:c r="F44" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H44" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s"/>
       <x:c r="J44" s="0" t="s"/>
     </x:row>
     <x:row r="45" spans="1:10">
-      <x:c r="A45" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B45" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C45" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D45" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A45" s="0" t="s"/>
+      <x:c r="B45" s="0" t="s"/>
+      <x:c r="C45" s="0" t="s"/>
+      <x:c r="D45" s="0" t="s"/>
       <x:c r="E45" s="0" t="s"/>
       <x:c r="F45" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H45" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s"/>
       <x:c r="J45" s="0" t="s"/>
     </x:row>
     <x:row r="46" spans="1:10">
-      <x:c r="A46" s="0" t="s"/>
-      <x:c r="B46" s="0" t="s"/>
-      <x:c r="C46" s="0" t="s"/>
-      <x:c r="D46" s="0" t="s"/>
+      <x:c r="A46" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E46" s="0" t="s"/>
       <x:c r="F46" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s"/>
       <x:c r="J46" s="0" t="s"/>
@@ -1695,41 +1562,37 @@
       <x:c r="B47" s="0" t="s"/>
       <x:c r="C47" s="0" t="s"/>
       <x:c r="D47" s="0" t="s"/>
-      <x:c r="E47" s="0" t="s"/>
+      <x:c r="E47" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H47" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s"/>
       <x:c r="J47" s="0" t="s"/>
     </x:row>
     <x:row r="48" spans="1:10">
-      <x:c r="A48" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B48" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C48" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D48" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E48" s="0" t="s"/>
+      <x:c r="A48" s="0" t="s"/>
+      <x:c r="B48" s="0" t="s"/>
+      <x:c r="C48" s="0" t="s"/>
+      <x:c r="D48" s="0" t="s"/>
+      <x:c r="E48" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H48" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s"/>
       <x:c r="J48" s="0" t="s"/>
@@ -1741,13 +1604,13 @@
       <x:c r="D49" s="0" t="s"/>
       <x:c r="E49" s="0" t="s"/>
       <x:c r="F49" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H49" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s"/>
       <x:c r="J49" s="0" t="s"/>
@@ -1759,13 +1622,13 @@
       <x:c r="D50" s="0" t="s"/>
       <x:c r="E50" s="0" t="s"/>
       <x:c r="F50" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H50" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I50" s="0" t="s"/>
       <x:c r="J50" s="0" t="s"/>
@@ -1777,31 +1640,39 @@
       <x:c r="D51" s="0" t="s"/>
       <x:c r="E51" s="0" t="s"/>
       <x:c r="F51" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H51" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s"/>
       <x:c r="J51" s="0" t="s"/>
     </x:row>
     <x:row r="52" spans="1:10">
-      <x:c r="A52" s="0" t="s"/>
-      <x:c r="B52" s="0" t="s"/>
-      <x:c r="C52" s="0" t="s"/>
-      <x:c r="D52" s="0" t="s"/>
+      <x:c r="A52" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E52" s="0" t="s"/>
       <x:c r="F52" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H52" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s"/>
       <x:c r="J52" s="0" t="s"/>
@@ -1813,31 +1684,39 @@
       <x:c r="D53" s="0" t="s"/>
       <x:c r="E53" s="0" t="s"/>
       <x:c r="F53" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="G53" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
       <x:c r="H53" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s"/>
       <x:c r="J53" s="0" t="s"/>
     </x:row>
     <x:row r="54" spans="1:10">
-      <x:c r="A54" s="0" t="s"/>
-      <x:c r="B54" s="0" t="s"/>
-      <x:c r="C54" s="0" t="s"/>
-      <x:c r="D54" s="0" t="s"/>
+      <x:c r="A54" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E54" s="0" t="s"/>
       <x:c r="F54" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H54" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s"/>
       <x:c r="J54" s="0" t="s"/>
@@ -1847,41 +1726,37 @@
       <x:c r="B55" s="0" t="s"/>
       <x:c r="C55" s="0" t="s"/>
       <x:c r="D55" s="0" t="s"/>
-      <x:c r="E55" s="0" t="s"/>
+      <x:c r="E55" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s"/>
       <x:c r="J55" s="0" t="s"/>
     </x:row>
     <x:row r="56" spans="1:10">
-      <x:c r="A56" s="0" t="s">
+      <x:c r="A56" s="0" t="s"/>
+      <x:c r="B56" s="0" t="s"/>
+      <x:c r="C56" s="0" t="s"/>
+      <x:c r="D56" s="0" t="s"/>
+      <x:c r="E56" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="B56" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C56" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D56" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E56" s="0" t="s"/>
-      <x:c r="F56" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G56" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H56" s="0" t="s">
-        <x:v>28</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s"/>
       <x:c r="J56" s="0" t="s"/>
@@ -1893,13 +1768,13 @@
       <x:c r="D57" s="0" t="s"/>
       <x:c r="E57" s="0" t="s"/>
       <x:c r="F57" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H57" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s"/>
       <x:c r="J57" s="0" t="s"/>
@@ -1911,13 +1786,13 @@
       <x:c r="D58" s="0" t="s"/>
       <x:c r="E58" s="0" t="s"/>
       <x:c r="F58" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H58" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s"/>
       <x:c r="J58" s="0" t="s"/>
@@ -1929,13 +1804,13 @@
       <x:c r="D59" s="0" t="s"/>
       <x:c r="E59" s="0" t="s"/>
       <x:c r="F59" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G59" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H59" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I59" s="0" t="s"/>
       <x:c r="J59" s="0" t="s"/>
@@ -1947,13 +1822,13 @@
       <x:c r="D60" s="0" t="s"/>
       <x:c r="E60" s="0" t="s"/>
       <x:c r="F60" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H60" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I60" s="0" t="s"/>
       <x:c r="J60" s="0" t="s"/>
@@ -1965,13 +1840,13 @@
       <x:c r="D61" s="0" t="s"/>
       <x:c r="E61" s="0" t="s"/>
       <x:c r="F61" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H61" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s"/>
       <x:c r="J61" s="0" t="s"/>
@@ -1983,57 +1858,59 @@
       <x:c r="D62" s="0" t="s"/>
       <x:c r="E62" s="0" t="s"/>
       <x:c r="F62" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H62" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s"/>
       <x:c r="J62" s="0" t="s"/>
     </x:row>
     <x:row r="63" spans="1:10">
-      <x:c r="A63" s="0" t="s"/>
-      <x:c r="B63" s="0" t="s"/>
-      <x:c r="C63" s="0" t="s"/>
-      <x:c r="D63" s="0" t="s"/>
+      <x:c r="A63" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E63" s="0" t="s"/>
       <x:c r="F63" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="s">
         <x:v>58</x:v>
-      </x:c>
-      <x:c r="G63" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H63" s="0" t="s">
-        <x:v>92</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s"/>
       <x:c r="J63" s="0" t="s"/>
     </x:row>
     <x:row r="64" spans="1:10">
-      <x:c r="A64" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B64" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C64" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D64" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E64" s="0" t="s"/>
+      <x:c r="A64" s="0" t="s"/>
+      <x:c r="B64" s="0" t="s"/>
+      <x:c r="C64" s="0" t="s"/>
+      <x:c r="D64" s="0" t="s"/>
+      <x:c r="E64" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F64" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s"/>
       <x:c r="J64" s="0" t="s"/>
@@ -2042,18 +1919,18 @@
       <x:c r="A65" s="0" t="s"/>
       <x:c r="B65" s="0" t="s"/>
       <x:c r="C65" s="0" t="s"/>
-      <x:c r="D65" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E65" s="0" t="s"/>
+      <x:c r="D65" s="0" t="s"/>
+      <x:c r="E65" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H65" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s"/>
       <x:c r="J65" s="0" t="s"/>
@@ -2065,13 +1942,13 @@
       <x:c r="D66" s="0" t="s"/>
       <x:c r="E66" s="0" t="s"/>
       <x:c r="F66" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H66" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s"/>
       <x:c r="J66" s="0" t="s"/>
@@ -2083,13 +1960,13 @@
       <x:c r="D67" s="0" t="s"/>
       <x:c r="E67" s="0" t="s"/>
       <x:c r="F67" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H67" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s"/>
       <x:c r="J67" s="0" t="s"/>
@@ -2101,57 +1978,57 @@
       <x:c r="D68" s="0" t="s"/>
       <x:c r="E68" s="0" t="s"/>
       <x:c r="F68" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H68" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s"/>
       <x:c r="J68" s="0" t="s"/>
     </x:row>
     <x:row r="69" spans="1:10">
-      <x:c r="A69" s="0" t="s"/>
-      <x:c r="B69" s="0" t="s"/>
-      <x:c r="C69" s="0" t="s"/>
-      <x:c r="D69" s="0" t="s"/>
+      <x:c r="A69" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E69" s="0" t="s"/>
       <x:c r="F69" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H69" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I69" s="0" t="s"/>
       <x:c r="J69" s="0" t="s"/>
     </x:row>
     <x:row r="70" spans="1:10">
-      <x:c r="A70" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B70" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C70" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D70" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
+      <x:c r="A70" s="0" t="s"/>
+      <x:c r="B70" s="0" t="s"/>
+      <x:c r="C70" s="0" t="s"/>
+      <x:c r="D70" s="0" t="s"/>
       <x:c r="E70" s="0" t="s"/>
       <x:c r="F70" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G70" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H70" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I70" s="0" t="s"/>
       <x:c r="J70" s="0" t="s"/>
@@ -2163,764 +2040,16 @@
       <x:c r="D71" s="0" t="s"/>
       <x:c r="E71" s="0" t="s"/>
       <x:c r="F71" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H71" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I71" s="0" t="s"/>
       <x:c r="J71" s="0" t="s"/>
-    </x:row>
-    <x:row r="72" spans="1:10">
-      <x:c r="A72" s="0" t="s"/>
-      <x:c r="B72" s="0" t="s"/>
-      <x:c r="C72" s="0" t="s"/>
-      <x:c r="D72" s="0" t="s"/>
-      <x:c r="E72" s="0" t="s"/>
-      <x:c r="F72" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G72" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H72" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="I72" s="0" t="s"/>
-      <x:c r="J72" s="0" t="s"/>
-    </x:row>
-    <x:row r="73" spans="1:10">
-      <x:c r="A73" s="0" t="s"/>
-      <x:c r="B73" s="0" t="s"/>
-      <x:c r="C73" s="0" t="s"/>
-      <x:c r="D73" s="0" t="s"/>
-      <x:c r="E73" s="0" t="s"/>
-      <x:c r="F73" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="G73" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="H73" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="I73" s="0" t="s"/>
-      <x:c r="J73" s="0" t="s"/>
-    </x:row>
-    <x:row r="74" spans="1:10">
-      <x:c r="A74" s="0" t="s"/>
-      <x:c r="B74" s="0" t="s"/>
-      <x:c r="C74" s="0" t="s"/>
-      <x:c r="D74" s="0" t="s"/>
-      <x:c r="E74" s="0" t="s"/>
-      <x:c r="F74" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="G74" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H74" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="I74" s="0" t="s"/>
-      <x:c r="J74" s="0" t="s"/>
-    </x:row>
-    <x:row r="75" spans="1:10">
-      <x:c r="A75" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B75" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C75" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D75" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E75" s="0" t="s"/>
-      <x:c r="F75" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G75" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H75" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I75" s="0" t="s"/>
-      <x:c r="J75" s="0" t="s"/>
-    </x:row>
-    <x:row r="76" spans="1:10">
-      <x:c r="A76" s="0" t="s"/>
-      <x:c r="B76" s="0" t="s"/>
-      <x:c r="C76" s="0" t="s"/>
-      <x:c r="D76" s="0" t="s"/>
-      <x:c r="E76" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F76" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G76" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H76" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I76" s="0" t="s"/>
-      <x:c r="J76" s="0" t="s"/>
-    </x:row>
-    <x:row r="77" spans="1:10">
-      <x:c r="A77" s="0" t="s"/>
-      <x:c r="B77" s="0" t="s"/>
-      <x:c r="C77" s="0" t="s"/>
-      <x:c r="D77" s="0" t="s"/>
-      <x:c r="E77" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F77" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G77" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="H77" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="I77" s="0" t="s"/>
-      <x:c r="J77" s="0" t="s"/>
-    </x:row>
-    <x:row r="78" spans="1:10">
-      <x:c r="A78" s="0" t="s"/>
-      <x:c r="B78" s="0" t="s"/>
-      <x:c r="C78" s="0" t="s"/>
-      <x:c r="D78" s="0" t="s"/>
-      <x:c r="E78" s="0" t="s"/>
-      <x:c r="F78" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="G78" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H78" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I78" s="0" t="s"/>
-      <x:c r="J78" s="0" t="s"/>
-    </x:row>
-    <x:row r="79" spans="1:10">
-      <x:c r="A79" s="0" t="s"/>
-      <x:c r="B79" s="0" t="s"/>
-      <x:c r="C79" s="0" t="s"/>
-      <x:c r="D79" s="0" t="s"/>
-      <x:c r="E79" s="0" t="s"/>
-      <x:c r="F79" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="G79" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H79" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I79" s="0" t="s"/>
-      <x:c r="J79" s="0" t="s"/>
-    </x:row>
-    <x:row r="80" spans="1:10">
-      <x:c r="A80" s="0" t="s"/>
-      <x:c r="B80" s="0" t="s"/>
-      <x:c r="C80" s="0" t="s"/>
-      <x:c r="D80" s="0" t="s"/>
-      <x:c r="E80" s="0" t="s"/>
-      <x:c r="F80" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G80" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H80" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="I80" s="0" t="s"/>
-      <x:c r="J80" s="0" t="s"/>
-    </x:row>
-    <x:row r="81" spans="1:10">
-      <x:c r="A81" s="0" t="s"/>
-      <x:c r="B81" s="0" t="s"/>
-      <x:c r="C81" s="0" t="s"/>
-      <x:c r="D81" s="0" t="s"/>
-      <x:c r="E81" s="0" t="s"/>
-      <x:c r="F81" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G81" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H81" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I81" s="0" t="s"/>
-      <x:c r="J81" s="0" t="s"/>
-    </x:row>
-    <x:row r="82" spans="1:10">
-      <x:c r="A82" s="0" t="s"/>
-      <x:c r="B82" s="0" t="s"/>
-      <x:c r="C82" s="0" t="s"/>
-      <x:c r="D82" s="0" t="s"/>
-      <x:c r="E82" s="0" t="s"/>
-      <x:c r="F82" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G82" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H82" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="I82" s="0" t="s"/>
-      <x:c r="J82" s="0" t="s"/>
-    </x:row>
-    <x:row r="83" spans="1:10">
-      <x:c r="A83" s="0" t="s"/>
-      <x:c r="B83" s="0" t="s"/>
-      <x:c r="C83" s="0" t="s"/>
-      <x:c r="D83" s="0" t="s"/>
-      <x:c r="E83" s="0" t="s"/>
-      <x:c r="F83" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="G83" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="H83" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I83" s="0" t="s"/>
-      <x:c r="J83" s="0" t="s"/>
-    </x:row>
-    <x:row r="84" spans="1:10">
-      <x:c r="A84" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B84" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C84" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D84" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E84" s="0" t="s"/>
-      <x:c r="F84" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G84" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H84" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I84" s="0" t="s"/>
-      <x:c r="J84" s="0" t="s"/>
-    </x:row>
-    <x:row r="85" spans="1:10">
-      <x:c r="A85" s="0" t="s"/>
-      <x:c r="B85" s="0" t="s"/>
-      <x:c r="C85" s="0" t="s"/>
-      <x:c r="D85" s="0" t="s"/>
-      <x:c r="E85" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F85" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G85" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H85" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I85" s="0" t="s"/>
-      <x:c r="J85" s="0" t="s"/>
-    </x:row>
-    <x:row r="86" spans="1:10">
-      <x:c r="A86" s="0" t="s"/>
-      <x:c r="B86" s="0" t="s"/>
-      <x:c r="C86" s="0" t="s"/>
-      <x:c r="D86" s="0" t="s"/>
-      <x:c r="E86" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F86" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G86" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="H86" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="I86" s="0" t="s"/>
-      <x:c r="J86" s="0" t="s"/>
-    </x:row>
-    <x:row r="87" spans="1:10">
-      <x:c r="A87" s="0" t="s"/>
-      <x:c r="B87" s="0" t="s"/>
-      <x:c r="C87" s="0" t="s"/>
-      <x:c r="D87" s="0" t="s"/>
-      <x:c r="E87" s="0" t="s"/>
-      <x:c r="F87" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="G87" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H87" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I87" s="0" t="s"/>
-      <x:c r="J87" s="0" t="s"/>
-    </x:row>
-    <x:row r="88" spans="1:10">
-      <x:c r="A88" s="0" t="s"/>
-      <x:c r="B88" s="0" t="s"/>
-      <x:c r="C88" s="0" t="s"/>
-      <x:c r="D88" s="0" t="s"/>
-      <x:c r="E88" s="0" t="s"/>
-      <x:c r="F88" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="G88" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H88" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I88" s="0" t="s"/>
-      <x:c r="J88" s="0" t="s"/>
-    </x:row>
-    <x:row r="89" spans="1:10">
-      <x:c r="A89" s="0" t="s"/>
-      <x:c r="B89" s="0" t="s"/>
-      <x:c r="C89" s="0" t="s"/>
-      <x:c r="D89" s="0" t="s"/>
-      <x:c r="E89" s="0" t="s"/>
-      <x:c r="F89" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G89" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="H89" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="I89" s="0" t="s"/>
-      <x:c r="J89" s="0" t="s"/>
-    </x:row>
-    <x:row r="90" spans="1:10">
-      <x:c r="A90" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B90" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C90" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D90" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E90" s="0" t="s"/>
-      <x:c r="F90" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G90" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H90" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I90" s="0" t="s"/>
-      <x:c r="J90" s="0" t="s"/>
-    </x:row>
-    <x:row r="91" spans="1:10">
-      <x:c r="A91" s="0" t="s"/>
-      <x:c r="B91" s="0" t="s"/>
-      <x:c r="C91" s="0" t="s"/>
-      <x:c r="D91" s="0" t="s"/>
-      <x:c r="E91" s="0" t="s"/>
-      <x:c r="F91" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G91" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H91" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I91" s="0" t="s"/>
-      <x:c r="J91" s="0" t="s"/>
-    </x:row>
-    <x:row r="92" spans="1:10">
-      <x:c r="A92" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B92" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C92" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D92" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E92" s="0" t="s"/>
-      <x:c r="F92" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G92" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="H92" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I92" s="0" t="s"/>
-      <x:c r="J92" s="0" t="s"/>
-    </x:row>
-    <x:row r="93" spans="1:10">
-      <x:c r="A93" s="0" t="s"/>
-      <x:c r="B93" s="0" t="s"/>
-      <x:c r="C93" s="0" t="s"/>
-      <x:c r="D93" s="0" t="s"/>
-      <x:c r="E93" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F93" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G93" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H93" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I93" s="0" t="s"/>
-      <x:c r="J93" s="0" t="s"/>
-    </x:row>
-    <x:row r="94" spans="1:10">
-      <x:c r="A94" s="0" t="s"/>
-      <x:c r="B94" s="0" t="s"/>
-      <x:c r="C94" s="0" t="s"/>
-      <x:c r="D94" s="0" t="s"/>
-      <x:c r="E94" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F94" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G94" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="H94" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="I94" s="0" t="s"/>
-      <x:c r="J94" s="0" t="s"/>
-    </x:row>
-    <x:row r="95" spans="1:10">
-      <x:c r="A95" s="0" t="s"/>
-      <x:c r="B95" s="0" t="s"/>
-      <x:c r="C95" s="0" t="s"/>
-      <x:c r="D95" s="0" t="s"/>
-      <x:c r="E95" s="0" t="s"/>
-      <x:c r="F95" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="G95" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H95" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="I95" s="0" t="s"/>
-      <x:c r="J95" s="0" t="s"/>
-    </x:row>
-    <x:row r="96" spans="1:10">
-      <x:c r="A96" s="0" t="s"/>
-      <x:c r="B96" s="0" t="s"/>
-      <x:c r="C96" s="0" t="s"/>
-      <x:c r="D96" s="0" t="s"/>
-      <x:c r="E96" s="0" t="s"/>
-      <x:c r="F96" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="G96" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H96" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I96" s="0" t="s"/>
-      <x:c r="J96" s="0" t="s"/>
-    </x:row>
-    <x:row r="97" spans="1:10">
-      <x:c r="A97" s="0" t="s"/>
-      <x:c r="B97" s="0" t="s"/>
-      <x:c r="C97" s="0" t="s"/>
-      <x:c r="D97" s="0" t="s"/>
-      <x:c r="E97" s="0" t="s"/>
-      <x:c r="F97" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G97" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H97" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="I97" s="0" t="s"/>
-      <x:c r="J97" s="0" t="s"/>
-    </x:row>
-    <x:row r="98" spans="1:10">
-      <x:c r="A98" s="0" t="s"/>
-      <x:c r="B98" s="0" t="s"/>
-      <x:c r="C98" s="0" t="s"/>
-      <x:c r="D98" s="0" t="s"/>
-      <x:c r="E98" s="0" t="s"/>
-      <x:c r="F98" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G98" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H98" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I98" s="0" t="s"/>
-      <x:c r="J98" s="0" t="s"/>
-    </x:row>
-    <x:row r="99" spans="1:10">
-      <x:c r="A99" s="0" t="s"/>
-      <x:c r="B99" s="0" t="s"/>
-      <x:c r="C99" s="0" t="s"/>
-      <x:c r="D99" s="0" t="s"/>
-      <x:c r="E99" s="0" t="s"/>
-      <x:c r="F99" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G99" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H99" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="I99" s="0" t="s"/>
-      <x:c r="J99" s="0" t="s"/>
-    </x:row>
-    <x:row r="100" spans="1:10">
-      <x:c r="A100" s="0" t="s"/>
-      <x:c r="B100" s="0" t="s"/>
-      <x:c r="C100" s="0" t="s"/>
-      <x:c r="D100" s="0" t="s"/>
-      <x:c r="E100" s="0" t="s"/>
-      <x:c r="F100" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="G100" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="H100" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I100" s="0" t="s"/>
-      <x:c r="J100" s="0" t="s"/>
-    </x:row>
-    <x:row r="101" spans="1:10">
-      <x:c r="A101" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B101" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C101" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D101" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E101" s="0" t="s"/>
-      <x:c r="F101" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G101" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="H101" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I101" s="0" t="s"/>
-      <x:c r="J101" s="0" t="s"/>
-    </x:row>
-    <x:row r="102" spans="1:10">
-      <x:c r="A102" s="0" t="s"/>
-      <x:c r="B102" s="0" t="s"/>
-      <x:c r="C102" s="0" t="s"/>
-      <x:c r="D102" s="0" t="s"/>
-      <x:c r="E102" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F102" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G102" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H102" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I102" s="0" t="s"/>
-      <x:c r="J102" s="0" t="s"/>
-    </x:row>
-    <x:row r="103" spans="1:10">
-      <x:c r="A103" s="0" t="s"/>
-      <x:c r="B103" s="0" t="s"/>
-      <x:c r="C103" s="0" t="s"/>
-      <x:c r="D103" s="0" t="s"/>
-      <x:c r="E103" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F103" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G103" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="H103" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="I103" s="0" t="s"/>
-      <x:c r="J103" s="0" t="s"/>
-    </x:row>
-    <x:row r="104" spans="1:10">
-      <x:c r="A104" s="0" t="s"/>
-      <x:c r="B104" s="0" t="s"/>
-      <x:c r="C104" s="0" t="s"/>
-      <x:c r="D104" s="0" t="s"/>
-      <x:c r="E104" s="0" t="s"/>
-      <x:c r="F104" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="G104" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H104" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="I104" s="0" t="s"/>
-      <x:c r="J104" s="0" t="s"/>
-    </x:row>
-    <x:row r="105" spans="1:10">
-      <x:c r="A105" s="0" t="s"/>
-      <x:c r="B105" s="0" t="s"/>
-      <x:c r="C105" s="0" t="s"/>
-      <x:c r="D105" s="0" t="s"/>
-      <x:c r="E105" s="0" t="s"/>
-      <x:c r="F105" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="G105" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H105" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I105" s="0" t="s"/>
-      <x:c r="J105" s="0" t="s"/>
-    </x:row>
-    <x:row r="106" spans="1:10">
-      <x:c r="A106" s="0" t="s"/>
-      <x:c r="B106" s="0" t="s"/>
-      <x:c r="C106" s="0" t="s"/>
-      <x:c r="D106" s="0" t="s"/>
-      <x:c r="E106" s="0" t="s"/>
-      <x:c r="F106" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G106" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="H106" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="I106" s="0" t="s"/>
-      <x:c r="J106" s="0" t="s"/>
-    </x:row>
-    <x:row r="107" spans="1:10">
-      <x:c r="A107" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B107" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C107" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D107" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E107" s="0" t="s"/>
-      <x:c r="F107" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G107" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H107" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I107" s="0" t="s"/>
-      <x:c r="J107" s="0" t="s"/>
-    </x:row>
-    <x:row r="108" spans="1:10">
-      <x:c r="A108" s="0" t="s"/>
-      <x:c r="B108" s="0" t="s"/>
-      <x:c r="C108" s="0" t="s"/>
-      <x:c r="D108" s="0" t="s"/>
-      <x:c r="E108" s="0" t="s"/>
-      <x:c r="F108" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G108" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H108" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="I108" s="0" t="s"/>
-      <x:c r="J108" s="0" t="s"/>
-    </x:row>
-    <x:row r="109" spans="1:10">
-      <x:c r="A109" s="0" t="s"/>
-      <x:c r="B109" s="0" t="s"/>
-      <x:c r="C109" s="0" t="s"/>
-      <x:c r="D109" s="0" t="s"/>
-      <x:c r="E109" s="0" t="s"/>
-      <x:c r="F109" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G109" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="H109" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="I109" s="0" t="s"/>
-      <x:c r="J109" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
